--- a/public/img/dp_gasolina_formato_valido.xlsx
+++ b/public/img/dp_gasolina_formato_valido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Descargas 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Descargas 2\sgvap_vs_1_0\sgvap_vs_1_0\public\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DE466-CFC8-4E8F-B809-07025878DEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B62D4-AFAE-4651-A681-CF14AAE18674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,17 +138,28 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -172,6 +189,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -191,10 +212,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5847E1A5-7000-4862-8816-51234EC582F8}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5847E1A5-7000-4862-8816-51234EC582F8}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:I3" xr:uid="{5847E1A5-7000-4862-8816-51234EC582F8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE890F79-A2C1-4899-84F0-56CE4AF69A7A}" name="fecha_dispersion" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{EE890F79-A2C1-4899-84F0-56CE4AF69A7A}" name="fecha_dispersion" dataDxfId="9" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{9C60E69F-9D6B-4840-BE1D-509CA6B3F429}" name="project_id" dataDxfId="8" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{825F0DDC-338F-4858-AAA4-CBE1BC07594C}" name="vehicle_id" dataDxfId="7" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{344048DE-C0D3-4D95-96F1-2D094EA6095A}" name="costo_lt" dataDxfId="6" dataCellStyle="Normal"/>
@@ -480,7 +501,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +518,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/img/dp_gasolina_formato_valido.xlsx
+++ b/public/img/dp_gasolina_formato_valido.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Descargas 2\sgvap_vs_1_0\sgvap_vs_1_0\public\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harol\Downloads\sgvap_vs_1_0\public\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B62D4-AFAE-4651-A681-CF14AAE18674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15E21DA-F1AF-41CC-9ABB-052ABB5FDDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>GH24-FGH4</t>
   </si>
   <si>
-    <t>"12/12/2025"</t>
-  </si>
-  <si>
-    <t>"13/12/2025"</t>
+    <t>"2025-12-08"</t>
+  </si>
+  <si>
+    <t>"2025-12-21"</t>
   </si>
 </sst>
 </file>
@@ -148,6 +148,43 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -160,43 +197,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,22 +212,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5847E1A5-7000-4862-8816-51234EC582F8}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5847E1A5-7000-4862-8816-51234EC582F8}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:I3" xr:uid="{5847E1A5-7000-4862-8816-51234EC582F8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE890F79-A2C1-4899-84F0-56CE4AF69A7A}" name="fecha_dispersion" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9C60E69F-9D6B-4840-BE1D-509CA6B3F429}" name="project_id" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{825F0DDC-338F-4858-AAA4-CBE1BC07594C}" name="vehicle_id" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{344048DE-C0D3-4D95-96F1-2D094EA6095A}" name="costo_lt" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{809D01ED-C9DC-47EA-91A5-1EDA3931C48F}" name="cant_litros" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1A4CD943-89A6-44B1-97E4-0563FB5CDA5B}" name="monto_dispersado" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{BDBE8D13-7331-4596-96FE-B07A8CB3A63A}" name="base_imponible" dataDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{EE890F79-A2C1-4899-84F0-56CE4AF69A7A}" name="fecha_dispersion" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9C60E69F-9D6B-4840-BE1D-509CA6B3F429}" name="project_id" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{825F0DDC-338F-4858-AAA4-CBE1BC07594C}" name="vehicle_id" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{344048DE-C0D3-4D95-96F1-2D094EA6095A}" name="costo_lt" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{809D01ED-C9DC-47EA-91A5-1EDA3931C48F}" name="cant_litros" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1A4CD943-89A6-44B1-97E4-0563FB5CDA5B}" name="monto_dispersado" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{BDBE8D13-7331-4596-96FE-B07A8CB3A63A}" name="base_imponible" dataDxfId="2" dataCellStyle="Normal">
       <calculatedColumnFormula>I2/1.16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{186E5412-950E-49D0-B487-F622173A4DC6}" name="iva_acumulado" dataDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="8" xr3:uid="{186E5412-950E-49D0-B487-F622173A4DC6}" name="iva_acumulado" dataDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>G2*0.16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D516B613-349F-4270-A74E-6836FC4896D7}" name="importe_total" dataDxfId="1" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{D516B613-349F-4270-A74E-6836FC4896D7}" name="importe_total" dataDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -501,23 +501,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -578,7 +578,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
